--- a/database/industries/darou/delor/product/quarterly_seprated.xlsx
+++ b/database/industries/darou/delor/product/quarterly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\delor\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\delor\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF1BE9D0-4EE3-4C85-8350-6EC877AFA6A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15ACC464-306F-4836-936A-9D9230C760EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1927" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1930" uniqueCount="73">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>مقدار فروش</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1399/06</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1399/09</t>
@@ -65,6 +62,9 @@
   </si>
   <si>
     <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
   </si>
   <si>
     <t>مقدار فروش داخلی</t>
@@ -715,12 +715,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -735,7 +735,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -752,7 +752,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -769,7 +769,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -784,7 +784,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -801,7 +801,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -818,7 +818,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -833,7 +833,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -870,7 +870,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -885,7 +885,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -902,7 +902,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
@@ -941,7 +941,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>19</v>
       </c>
@@ -980,7 +980,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>20</v>
       </c>
@@ -1019,7 +1019,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>21</v>
       </c>
@@ -1028,37 +1028,37 @@
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
-        <v>3530747</v>
+        <v>4276247</v>
       </c>
       <c r="F14" s="13">
-        <v>4276247</v>
+        <v>1731908</v>
       </c>
       <c r="G14" s="13">
-        <v>1731908</v>
+        <v>2892164</v>
       </c>
       <c r="H14" s="13">
-        <v>2892164</v>
+        <v>3786657</v>
       </c>
       <c r="I14" s="13">
-        <v>3786657</v>
-      </c>
-      <c r="J14" s="13">
         <v>5042567</v>
       </c>
-      <c r="K14" s="13" t="s">
-        <v>18</v>
+      <c r="J14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" s="13">
+        <v>7186808</v>
       </c>
       <c r="L14" s="13">
-        <v>7186808</v>
+        <v>3911529</v>
       </c>
       <c r="M14" s="13">
-        <v>3911529</v>
+        <v>2547512</v>
       </c>
       <c r="N14" s="13">
-        <v>2547512</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3164772</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>22</v>
       </c>
@@ -1067,37 +1067,37 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
-        <v>303340825</v>
+        <v>248996258</v>
       </c>
       <c r="F15" s="11">
-        <v>248996258</v>
+        <v>154714403</v>
       </c>
       <c r="G15" s="11">
-        <v>154714403</v>
+        <v>188583284</v>
       </c>
       <c r="H15" s="11">
-        <v>188583284</v>
+        <v>235833578</v>
       </c>
       <c r="I15" s="11">
-        <v>235833578</v>
-      </c>
-      <c r="J15" s="11">
         <v>348626909</v>
       </c>
-      <c r="K15" s="11" t="s">
-        <v>18</v>
+      <c r="J15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="11">
+        <v>256241454</v>
       </c>
       <c r="L15" s="11">
-        <v>256241454</v>
+        <v>243095578</v>
       </c>
       <c r="M15" s="11">
-        <v>243095578</v>
+        <v>263059209</v>
       </c>
       <c r="N15" s="11">
-        <v>263059209</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+        <v>172657976</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>23</v>
       </c>
@@ -1136,7 +1136,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>24</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
         <v>25</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>26</v>
       </c>
@@ -1253,7 +1253,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
         <v>27</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>28</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="12" t="s">
         <v>29</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>30</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="12" t="s">
         <v>31</v>
       </c>
@@ -1448,7 +1448,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>32</v>
       </c>
@@ -1487,7 +1487,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="12" t="s">
         <v>33</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>34</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
         <v>35</v>
       </c>
@@ -1604,7 +1604,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
         <v>36</v>
       </c>
@@ -1613,37 +1613,37 @@
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11">
-        <v>33739810</v>
+        <v>36314071</v>
       </c>
       <c r="F29" s="11">
-        <v>36314071</v>
+        <v>25760807</v>
       </c>
       <c r="G29" s="11">
-        <v>25760807</v>
+        <v>39916825</v>
       </c>
       <c r="H29" s="11">
-        <v>39916825</v>
+        <v>46257592</v>
       </c>
       <c r="I29" s="11">
-        <v>46257592</v>
-      </c>
-      <c r="J29" s="11">
         <v>50022351</v>
       </c>
-      <c r="K29" s="11" t="s">
-        <v>18</v>
+      <c r="J29" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K29" s="11">
+        <v>40407663</v>
       </c>
       <c r="L29" s="11">
-        <v>40407663</v>
+        <v>36327078</v>
       </c>
       <c r="M29" s="11">
-        <v>36327078</v>
+        <v>47387246</v>
       </c>
       <c r="N29" s="11">
-        <v>47387246</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+        <v>24956948</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="12" t="s">
         <v>37</v>
       </c>
@@ -1652,74 +1652,74 @@
       </c>
       <c r="D30" s="13"/>
       <c r="E30" s="13">
-        <v>16773075</v>
+        <v>21460694</v>
       </c>
       <c r="F30" s="13">
-        <v>21460694</v>
+        <v>13814816</v>
       </c>
       <c r="G30" s="13">
-        <v>13814816</v>
+        <v>10262124</v>
       </c>
       <c r="H30" s="13">
-        <v>10262124</v>
+        <v>15352604</v>
       </c>
       <c r="I30" s="13">
-        <v>15352604</v>
-      </c>
-      <c r="J30" s="13">
         <v>24761155</v>
       </c>
-      <c r="K30" s="13" t="s">
-        <v>18</v>
+      <c r="J30" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K30" s="13">
+        <v>22824845</v>
       </c>
       <c r="L30" s="13">
-        <v>22824845</v>
+        <v>19128370</v>
       </c>
       <c r="M30" s="13">
-        <v>19128370</v>
+        <v>17404302</v>
       </c>
       <c r="N30" s="13">
-        <v>17404302</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+        <v>12952840</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
         <v>38</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
       <c r="E31" s="15">
-        <v>357384457</v>
+        <v>311047270</v>
       </c>
       <c r="F31" s="15">
-        <v>311047270</v>
+        <v>196021934</v>
       </c>
       <c r="G31" s="15">
-        <v>196021934</v>
+        <v>241654397</v>
       </c>
       <c r="H31" s="15">
-        <v>241654397</v>
+        <v>301230431</v>
       </c>
       <c r="I31" s="15">
-        <v>301230431</v>
+        <v>428452982</v>
       </c>
       <c r="J31" s="15">
-        <v>428452982</v>
+        <v>0</v>
       </c>
       <c r="K31" s="15">
-        <v>0</v>
+        <v>326660770</v>
       </c>
       <c r="L31" s="15">
-        <v>326660770</v>
+        <v>302462555</v>
       </c>
       <c r="M31" s="15">
-        <v>302462555</v>
+        <v>330398269</v>
       </c>
       <c r="N31" s="15">
-        <v>330398269</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+        <v>213732536</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
         <v>39</v>
       </c>
@@ -1736,7 +1736,7 @@
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
         <v>16</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
         <v>19</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="10" t="s">
         <v>20</v>
       </c>
@@ -1853,7 +1853,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="12" t="s">
         <v>21</v>
       </c>
@@ -1862,13 +1862,13 @@
       </c>
       <c r="D36" s="13"/>
       <c r="E36" s="13">
-        <v>64264</v>
+        <v>43932</v>
       </c>
       <c r="F36" s="13">
-        <v>43932</v>
+        <v>10000</v>
       </c>
       <c r="G36" s="13">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="H36" s="13">
         <v>0</v>
@@ -1876,23 +1876,23 @@
       <c r="I36" s="13">
         <v>0</v>
       </c>
-      <c r="J36" s="13">
+      <c r="J36" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K36" s="13">
         <v>0</v>
-      </c>
-      <c r="K36" s="13" t="s">
-        <v>18</v>
       </c>
       <c r="L36" s="13">
         <v>0</v>
       </c>
       <c r="M36" s="13">
-        <v>0</v>
+        <v>97000</v>
       </c>
       <c r="N36" s="13">
-        <v>97000</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="10" t="s">
         <v>22</v>
       </c>
@@ -1901,37 +1901,37 @@
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11">
-        <v>2016000</v>
+        <v>5799970</v>
       </c>
       <c r="F37" s="11">
-        <v>5799970</v>
+        <v>75116</v>
       </c>
       <c r="G37" s="11">
-        <v>75116</v>
+        <v>280000</v>
       </c>
       <c r="H37" s="11">
-        <v>280000</v>
+        <v>349440</v>
       </c>
       <c r="I37" s="11">
-        <v>349440</v>
-      </c>
-      <c r="J37" s="11">
         <v>4898200</v>
       </c>
-      <c r="K37" s="11" t="s">
-        <v>18</v>
+      <c r="J37" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K37" s="11">
+        <v>0</v>
       </c>
       <c r="L37" s="11">
         <v>0</v>
       </c>
       <c r="M37" s="11">
+        <v>2392760</v>
+      </c>
+      <c r="N37" s="11">
         <v>0</v>
       </c>
-      <c r="N37" s="11">
-        <v>2392760</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="12" t="s">
         <v>24</v>
       </c>
@@ -1970,7 +1970,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
         <v>26</v>
       </c>
@@ -2009,7 +2009,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="12" t="s">
         <v>27</v>
       </c>
@@ -2048,7 +2048,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>28</v>
       </c>
@@ -2087,7 +2087,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="12" t="s">
         <v>29</v>
       </c>
@@ -2126,7 +2126,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>30</v>
       </c>
@@ -2165,7 +2165,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
         <v>31</v>
       </c>
@@ -2204,7 +2204,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>34</v>
       </c>
@@ -2243,7 +2243,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="12" t="s">
         <v>36</v>
       </c>
@@ -2252,37 +2252,37 @@
       </c>
       <c r="D46" s="13"/>
       <c r="E46" s="13">
-        <v>1167977</v>
+        <v>728109</v>
       </c>
       <c r="F46" s="13">
-        <v>728109</v>
+        <v>795130</v>
       </c>
       <c r="G46" s="13">
-        <v>795130</v>
+        <v>252700</v>
       </c>
       <c r="H46" s="13">
-        <v>252700</v>
+        <v>0</v>
       </c>
       <c r="I46" s="13">
-        <v>0</v>
-      </c>
-      <c r="J46" s="13">
         <v>421785</v>
       </c>
-      <c r="K46" s="13" t="s">
-        <v>18</v>
+      <c r="J46" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K46" s="13">
+        <v>162015</v>
       </c>
       <c r="L46" s="13">
-        <v>162015</v>
+        <v>11300</v>
       </c>
       <c r="M46" s="13">
-        <v>11300</v>
+        <v>449780</v>
       </c>
       <c r="N46" s="13">
-        <v>449780</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+        <v>737699</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
         <v>37</v>
       </c>
@@ -2291,74 +2291,74 @@
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11">
-        <v>3899215</v>
+        <v>1107467</v>
       </c>
       <c r="F47" s="11">
-        <v>1107467</v>
+        <v>1607528</v>
       </c>
       <c r="G47" s="11">
-        <v>1607528</v>
+        <v>1138932</v>
       </c>
       <c r="H47" s="11">
-        <v>1138932</v>
+        <v>2267364</v>
       </c>
       <c r="I47" s="11">
-        <v>2267364</v>
-      </c>
-      <c r="J47" s="11">
         <v>165604</v>
       </c>
-      <c r="K47" s="11" t="s">
-        <v>18</v>
+      <c r="J47" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K47" s="11">
+        <v>396540</v>
       </c>
       <c r="L47" s="11">
-        <v>396540</v>
+        <v>11980</v>
       </c>
       <c r="M47" s="11">
-        <v>11980</v>
+        <v>883343</v>
       </c>
       <c r="N47" s="11">
-        <v>883343</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+        <v>744056</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="16" t="s">
         <v>40</v>
       </c>
       <c r="C48" s="17"/>
       <c r="D48" s="17"/>
       <c r="E48" s="17">
-        <v>7147456</v>
+        <v>7679478</v>
       </c>
       <c r="F48" s="17">
-        <v>7679478</v>
+        <v>2487774</v>
       </c>
       <c r="G48" s="17">
-        <v>2487774</v>
+        <v>1671632</v>
       </c>
       <c r="H48" s="17">
-        <v>1671632</v>
+        <v>2616804</v>
       </c>
       <c r="I48" s="17">
-        <v>2616804</v>
+        <v>5485589</v>
       </c>
       <c r="J48" s="17">
-        <v>5485589</v>
+        <v>0</v>
       </c>
       <c r="K48" s="17">
-        <v>0</v>
+        <v>558555</v>
       </c>
       <c r="L48" s="17">
-        <v>558555</v>
+        <v>23280</v>
       </c>
       <c r="M48" s="17">
-        <v>23280</v>
+        <v>3822883</v>
       </c>
       <c r="N48" s="17">
-        <v>3822883</v>
-      </c>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1516755</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
         <v>41</v>
       </c>
@@ -2375,7 +2375,7 @@
       <c r="M49" s="9"/>
       <c r="N49" s="9"/>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>42</v>
       </c>
@@ -2414,7 +2414,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="12" t="s">
         <v>43</v>
       </c>
@@ -2432,28 +2432,28 @@
         <v>0</v>
       </c>
       <c r="H51" s="13">
-        <v>0</v>
+        <v>-1603424</v>
       </c>
       <c r="I51" s="13">
-        <v>-1603424</v>
-      </c>
-      <c r="J51" s="13">
         <v>6637814</v>
       </c>
-      <c r="K51" s="13" t="s">
-        <v>18</v>
+      <c r="J51" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K51" s="13">
+        <v>3277059</v>
       </c>
       <c r="L51" s="13">
-        <v>3277059</v>
+        <v>3337839</v>
       </c>
       <c r="M51" s="13">
-        <v>3337839</v>
+        <v>4823567</v>
       </c>
       <c r="N51" s="13">
-        <v>4823567</v>
-      </c>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2669151</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="14" t="s">
         <v>44</v>
       </c>
@@ -2469,28 +2469,28 @@
         <v>0</v>
       </c>
       <c r="H52" s="15">
+        <v>-1603424</v>
+      </c>
+      <c r="I52" s="15">
+        <v>6637814</v>
+      </c>
+      <c r="J52" s="15">
         <v>0</v>
       </c>
-      <c r="I52" s="15">
-        <v>-1603424</v>
-      </c>
-      <c r="J52" s="15">
-        <v>6637814</v>
-      </c>
       <c r="K52" s="15">
-        <v>0</v>
+        <v>3277059</v>
       </c>
       <c r="L52" s="15">
-        <v>3277059</v>
+        <v>3337839</v>
       </c>
       <c r="M52" s="15">
-        <v>3337839</v>
+        <v>4823567</v>
       </c>
       <c r="N52" s="15">
-        <v>4823567</v>
-      </c>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2669151</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="16" t="s">
         <v>45</v>
       </c>
@@ -2507,8 +2507,8 @@
       <c r="G53" s="17">
         <v>0</v>
       </c>
-      <c r="H53" s="17">
-        <v>0</v>
+      <c r="H53" s="17" t="s">
+        <v>18</v>
       </c>
       <c r="I53" s="17" t="s">
         <v>18</v>
@@ -2529,7 +2529,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="14" t="s">
         <v>47</v>
       </c>
@@ -2550,11 +2550,11 @@
       <c r="I54" s="15">
         <v>0</v>
       </c>
-      <c r="J54" s="15">
+      <c r="J54" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K54" s="15">
         <v>0</v>
-      </c>
-      <c r="K54" s="15" t="s">
-        <v>18</v>
       </c>
       <c r="L54" s="15">
         <v>0</v>
@@ -2566,44 +2566,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="16" t="s">
         <v>48</v>
       </c>
       <c r="C55" s="17"/>
       <c r="D55" s="17"/>
       <c r="E55" s="17">
-        <v>364531913</v>
+        <v>318726748</v>
       </c>
       <c r="F55" s="17">
-        <v>318726748</v>
+        <v>198509708</v>
       </c>
       <c r="G55" s="17">
-        <v>198509708</v>
+        <v>243326029</v>
       </c>
       <c r="H55" s="17">
-        <v>243326029</v>
+        <v>302243811</v>
       </c>
       <c r="I55" s="17">
-        <v>302243811</v>
+        <v>440576385</v>
       </c>
       <c r="J55" s="17">
-        <v>440576385</v>
+        <v>0</v>
       </c>
       <c r="K55" s="17">
-        <v>0</v>
+        <v>330496384</v>
       </c>
       <c r="L55" s="17">
-        <v>330496384</v>
+        <v>305823674</v>
       </c>
       <c r="M55" s="17">
-        <v>305823674</v>
+        <v>339044719</v>
       </c>
       <c r="N55" s="17">
-        <v>339044719</v>
-      </c>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+        <v>217918442</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -2618,7 +2618,7 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -2633,7 +2633,7 @@
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -2648,7 +2648,7 @@
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B59" s="7" t="s">
         <v>49</v>
       </c>
@@ -2685,7 +2685,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -2700,7 +2700,7 @@
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
         <v>50</v>
       </c>
@@ -2717,7 +2717,7 @@
       <c r="M61" s="9"/>
       <c r="N61" s="9"/>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
         <v>16</v>
       </c>
@@ -2756,7 +2756,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="12" t="s">
         <v>19</v>
       </c>
@@ -2795,7 +2795,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
         <v>20</v>
       </c>
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="12" t="s">
         <v>21</v>
       </c>
@@ -2843,37 +2843,37 @@
       </c>
       <c r="D65" s="13"/>
       <c r="E65" s="13">
-        <v>275388</v>
+        <v>411471</v>
       </c>
       <c r="F65" s="13">
-        <v>411471</v>
+        <v>222684</v>
       </c>
       <c r="G65" s="13">
-        <v>222684</v>
+        <v>330538</v>
       </c>
       <c r="H65" s="13">
-        <v>330538</v>
+        <v>448917</v>
       </c>
       <c r="I65" s="13">
-        <v>448917</v>
-      </c>
-      <c r="J65" s="13">
         <v>477699</v>
       </c>
-      <c r="K65" s="13" t="s">
-        <v>18</v>
+      <c r="J65" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K65" s="13">
+        <v>762026</v>
       </c>
       <c r="L65" s="13">
-        <v>762026</v>
+        <v>570015</v>
       </c>
       <c r="M65" s="13">
-        <v>570015</v>
+        <v>497910</v>
       </c>
       <c r="N65" s="13">
-        <v>497910</v>
-      </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+        <v>706592</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
         <v>22</v>
       </c>
@@ -2882,37 +2882,37 @@
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="11">
-        <v>548861</v>
+        <v>697560</v>
       </c>
       <c r="F66" s="11">
-        <v>697560</v>
+        <v>433043</v>
       </c>
       <c r="G66" s="11">
-        <v>433043</v>
+        <v>581083</v>
       </c>
       <c r="H66" s="11">
-        <v>581083</v>
+        <v>715055</v>
       </c>
       <c r="I66" s="11">
-        <v>715055</v>
-      </c>
-      <c r="J66" s="11">
         <v>1267381</v>
       </c>
-      <c r="K66" s="11" t="s">
-        <v>18</v>
+      <c r="J66" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K66" s="11">
+        <v>977827</v>
       </c>
       <c r="L66" s="11">
-        <v>977827</v>
+        <v>1256089</v>
       </c>
       <c r="M66" s="11">
-        <v>1256089</v>
+        <v>1597707</v>
       </c>
       <c r="N66" s="11">
-        <v>1597707</v>
-      </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1163182</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="12" t="s">
         <v>23</v>
       </c>
@@ -2951,7 +2951,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="10" t="s">
         <v>24</v>
       </c>
@@ -2990,7 +2990,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="12" t="s">
         <v>25</v>
       </c>
@@ -3029,7 +3029,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
         <v>26</v>
       </c>
@@ -3068,7 +3068,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="12" t="s">
         <v>27</v>
       </c>
@@ -3107,7 +3107,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="10" t="s">
         <v>28</v>
       </c>
@@ -3146,7 +3146,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="12" t="s">
         <v>29</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="10" t="s">
         <v>30</v>
       </c>
@@ -3224,7 +3224,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="12" t="s">
         <v>31</v>
       </c>
@@ -3263,7 +3263,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
         <v>32</v>
       </c>
@@ -3302,7 +3302,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="12" t="s">
         <v>33</v>
       </c>
@@ -3341,7 +3341,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>34</v>
       </c>
@@ -3380,7 +3380,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="12" t="s">
         <v>35</v>
       </c>
@@ -3419,7 +3419,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="10" t="s">
         <v>36</v>
       </c>
@@ -3428,37 +3428,37 @@
       </c>
       <c r="D80" s="11"/>
       <c r="E80" s="11">
-        <v>1155395</v>
+        <v>1263689</v>
       </c>
       <c r="F80" s="11">
-        <v>1263689</v>
+        <v>1133909</v>
       </c>
       <c r="G80" s="11">
-        <v>1133909</v>
+        <v>1677742</v>
       </c>
       <c r="H80" s="11">
-        <v>1677742</v>
+        <v>6383684</v>
       </c>
       <c r="I80" s="11">
-        <v>6383684</v>
-      </c>
-      <c r="J80" s="11">
         <v>3428441</v>
       </c>
-      <c r="K80" s="11" t="s">
-        <v>18</v>
+      <c r="J80" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K80" s="11">
+        <v>2842464</v>
       </c>
       <c r="L80" s="11">
-        <v>2842464</v>
+        <v>3155373</v>
       </c>
       <c r="M80" s="11">
-        <v>3155373</v>
+        <v>3555143</v>
       </c>
       <c r="N80" s="11">
-        <v>3555143</v>
-      </c>
-    </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2900828</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="12" t="s">
         <v>37</v>
       </c>
@@ -3467,74 +3467,74 @@
       </c>
       <c r="D81" s="13"/>
       <c r="E81" s="13">
-        <v>322980</v>
+        <v>392803</v>
       </c>
       <c r="F81" s="13">
-        <v>392803</v>
+        <v>310133</v>
       </c>
       <c r="G81" s="13">
-        <v>310133</v>
+        <v>338574</v>
       </c>
       <c r="H81" s="13">
-        <v>338574</v>
+        <v>514390</v>
       </c>
       <c r="I81" s="13">
-        <v>514390</v>
-      </c>
-      <c r="J81" s="13">
         <v>730423</v>
       </c>
-      <c r="K81" s="13" t="s">
-        <v>18</v>
+      <c r="J81" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K81" s="13">
+        <v>891035</v>
       </c>
       <c r="L81" s="13">
-        <v>891035</v>
+        <v>1151291</v>
       </c>
       <c r="M81" s="13">
-        <v>1151291</v>
+        <v>1157041</v>
       </c>
       <c r="N81" s="13">
-        <v>1157041</v>
-      </c>
-    </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1426843</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="14" t="s">
         <v>38</v>
       </c>
       <c r="C82" s="15"/>
       <c r="D82" s="15"/>
       <c r="E82" s="15">
-        <v>2302624</v>
+        <v>2765523</v>
       </c>
       <c r="F82" s="15">
-        <v>2765523</v>
+        <v>2099769</v>
       </c>
       <c r="G82" s="15">
-        <v>2099769</v>
+        <v>2927937</v>
       </c>
       <c r="H82" s="15">
-        <v>2927937</v>
+        <v>8062046</v>
       </c>
       <c r="I82" s="15">
-        <v>8062046</v>
+        <v>5903944</v>
       </c>
       <c r="J82" s="15">
-        <v>5903944</v>
+        <v>0</v>
       </c>
       <c r="K82" s="15">
-        <v>0</v>
+        <v>5473352</v>
       </c>
       <c r="L82" s="15">
-        <v>5473352</v>
+        <v>6132768</v>
       </c>
       <c r="M82" s="15">
-        <v>6132768</v>
+        <v>6807801</v>
       </c>
       <c r="N82" s="15">
-        <v>6807801</v>
-      </c>
-    </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+        <v>6197445</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
         <v>52</v>
       </c>
@@ -3551,7 +3551,7 @@
       <c r="M83" s="9"/>
       <c r="N83" s="9"/>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>16</v>
       </c>
@@ -3590,7 +3590,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="12" t="s">
         <v>19</v>
       </c>
@@ -3629,7 +3629,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>20</v>
       </c>
@@ -3668,7 +3668,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="12" t="s">
         <v>21</v>
       </c>
@@ -3677,13 +3677,13 @@
       </c>
       <c r="D87" s="13"/>
       <c r="E87" s="13">
-        <v>5812</v>
+        <v>3931</v>
       </c>
       <c r="F87" s="13">
-        <v>3931</v>
+        <v>1012</v>
       </c>
       <c r="G87" s="13">
-        <v>1012</v>
+        <v>0</v>
       </c>
       <c r="H87" s="13">
         <v>0</v>
@@ -3691,23 +3691,23 @@
       <c r="I87" s="13">
         <v>0</v>
       </c>
-      <c r="J87" s="13">
+      <c r="J87" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K87" s="13">
         <v>0</v>
-      </c>
-      <c r="K87" s="13" t="s">
-        <v>18</v>
       </c>
       <c r="L87" s="13">
         <v>0</v>
       </c>
       <c r="M87" s="13">
-        <v>0</v>
+        <v>13014</v>
       </c>
       <c r="N87" s="13">
-        <v>13014</v>
-      </c>
-    </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3760</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="10" t="s">
         <v>22</v>
       </c>
@@ -3716,37 +3716,37 @@
       </c>
       <c r="D88" s="11"/>
       <c r="E88" s="11">
-        <v>12060</v>
+        <v>13609</v>
       </c>
       <c r="F88" s="11">
-        <v>13609</v>
+        <v>1454</v>
       </c>
       <c r="G88" s="11">
-        <v>1454</v>
+        <v>2682</v>
       </c>
       <c r="H88" s="11">
-        <v>2682</v>
+        <v>1003</v>
       </c>
       <c r="I88" s="11">
-        <v>1003</v>
-      </c>
-      <c r="J88" s="11">
         <v>19254</v>
       </c>
-      <c r="K88" s="11" t="s">
-        <v>18</v>
+      <c r="J88" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K88" s="11">
+        <v>0</v>
       </c>
       <c r="L88" s="11">
         <v>0</v>
       </c>
       <c r="M88" s="11">
-        <v>0</v>
+        <v>13062</v>
       </c>
       <c r="N88" s="11">
-        <v>13062</v>
-      </c>
-    </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="12" t="s">
         <v>24</v>
       </c>
@@ -3785,7 +3785,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="10" t="s">
         <v>26</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="12" t="s">
         <v>27</v>
       </c>
@@ -3863,7 +3863,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="10" t="s">
         <v>28</v>
       </c>
@@ -3902,7 +3902,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="12" t="s">
         <v>29</v>
       </c>
@@ -3941,7 +3941,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="10" t="s">
         <v>30</v>
       </c>
@@ -3980,7 +3980,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="12" t="s">
         <v>31</v>
       </c>
@@ -4019,7 +4019,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="10" t="s">
         <v>34</v>
       </c>
@@ -4058,7 +4058,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="12" t="s">
         <v>36</v>
       </c>
@@ -4067,37 +4067,37 @@
       </c>
       <c r="D97" s="13"/>
       <c r="E97" s="13">
-        <v>73229</v>
+        <v>41022</v>
       </c>
       <c r="F97" s="13">
-        <v>41022</v>
+        <v>25480</v>
       </c>
       <c r="G97" s="13">
-        <v>25480</v>
+        <v>27083</v>
       </c>
       <c r="H97" s="13">
-        <v>27083</v>
+        <v>0</v>
       </c>
       <c r="I97" s="13">
-        <v>0</v>
-      </c>
-      <c r="J97" s="13">
         <v>141414</v>
       </c>
-      <c r="K97" s="13" t="s">
-        <v>18</v>
+      <c r="J97" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K97" s="13">
+        <v>37505</v>
       </c>
       <c r="L97" s="13">
-        <v>37505</v>
+        <v>6224</v>
       </c>
       <c r="M97" s="13">
-        <v>6224</v>
+        <v>12243</v>
       </c>
       <c r="N97" s="13">
-        <v>12243</v>
-      </c>
-    </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+        <v>45075</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="10" t="s">
         <v>37</v>
       </c>
@@ -4106,74 +4106,74 @@
       </c>
       <c r="D98" s="11"/>
       <c r="E98" s="11">
-        <v>281909</v>
+        <v>16931</v>
       </c>
       <c r="F98" s="11">
-        <v>16931</v>
+        <v>152556</v>
       </c>
       <c r="G98" s="11">
-        <v>152556</v>
+        <v>171235</v>
       </c>
       <c r="H98" s="11">
-        <v>171235</v>
+        <v>287859</v>
       </c>
       <c r="I98" s="11">
-        <v>287859</v>
-      </c>
-      <c r="J98" s="11">
         <v>34201</v>
       </c>
-      <c r="K98" s="11" t="s">
-        <v>18</v>
+      <c r="J98" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K98" s="11">
+        <v>35200</v>
       </c>
       <c r="L98" s="11">
-        <v>35200</v>
+        <v>3669</v>
       </c>
       <c r="M98" s="11">
-        <v>3669</v>
+        <v>81235</v>
       </c>
       <c r="N98" s="11">
-        <v>81235</v>
-      </c>
-    </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+        <v>79692</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="16" t="s">
         <v>40</v>
       </c>
       <c r="C99" s="17"/>
       <c r="D99" s="17"/>
       <c r="E99" s="17">
-        <v>373010</v>
+        <v>75493</v>
       </c>
       <c r="F99" s="17">
-        <v>75493</v>
+        <v>180502</v>
       </c>
       <c r="G99" s="17">
-        <v>180502</v>
+        <v>201000</v>
       </c>
       <c r="H99" s="17">
-        <v>201000</v>
+        <v>288862</v>
       </c>
       <c r="I99" s="17">
-        <v>288862</v>
+        <v>194869</v>
       </c>
       <c r="J99" s="17">
-        <v>194869</v>
+        <v>0</v>
       </c>
       <c r="K99" s="17">
-        <v>0</v>
+        <v>72705</v>
       </c>
       <c r="L99" s="17">
-        <v>72705</v>
+        <v>9893</v>
       </c>
       <c r="M99" s="17">
-        <v>9893</v>
+        <v>119554</v>
       </c>
       <c r="N99" s="17">
-        <v>119554</v>
-      </c>
-    </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+        <v>128528</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="8" t="s">
         <v>53</v>
       </c>
@@ -4190,7 +4190,7 @@
       <c r="M100" s="9"/>
       <c r="N100" s="9"/>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="10" t="s">
         <v>42</v>
       </c>
@@ -4229,7 +4229,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="12" t="s">
         <v>43</v>
       </c>
@@ -4238,74 +4238,74 @@
       </c>
       <c r="D102" s="13"/>
       <c r="E102" s="13">
-        <v>89382</v>
+        <v>62413</v>
       </c>
       <c r="F102" s="13">
-        <v>62413</v>
+        <v>74733</v>
       </c>
       <c r="G102" s="13">
-        <v>74733</v>
+        <v>65508</v>
       </c>
       <c r="H102" s="13">
-        <v>65508</v>
+        <v>103918</v>
       </c>
       <c r="I102" s="13">
-        <v>103918</v>
-      </c>
-      <c r="J102" s="13">
         <v>73709</v>
       </c>
-      <c r="K102" s="13" t="s">
-        <v>18</v>
+      <c r="J102" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K102" s="13">
+        <v>83488</v>
       </c>
       <c r="L102" s="13">
-        <v>83488</v>
+        <v>80943</v>
       </c>
       <c r="M102" s="13">
-        <v>80943</v>
+        <v>99886</v>
       </c>
       <c r="N102" s="13">
-        <v>99886</v>
-      </c>
-    </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+        <v>114342</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C103" s="15"/>
       <c r="D103" s="15"/>
       <c r="E103" s="15">
-        <v>89382</v>
+        <v>62413</v>
       </c>
       <c r="F103" s="15">
-        <v>62413</v>
+        <v>74733</v>
       </c>
       <c r="G103" s="15">
-        <v>74733</v>
+        <v>65508</v>
       </c>
       <c r="H103" s="15">
-        <v>65508</v>
+        <v>103918</v>
       </c>
       <c r="I103" s="15">
-        <v>103918</v>
+        <v>73709</v>
       </c>
       <c r="J103" s="15">
-        <v>73709</v>
+        <v>0</v>
       </c>
       <c r="K103" s="15">
-        <v>0</v>
+        <v>83488</v>
       </c>
       <c r="L103" s="15">
-        <v>83488</v>
+        <v>80943</v>
       </c>
       <c r="M103" s="15">
-        <v>80943</v>
+        <v>99886</v>
       </c>
       <c r="N103" s="15">
-        <v>99886</v>
-      </c>
-    </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+        <v>114342</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="16" t="s">
         <v>45</v>
       </c>
@@ -4322,8 +4322,8 @@
       <c r="G104" s="17">
         <v>0</v>
       </c>
-      <c r="H104" s="17">
-        <v>0</v>
+      <c r="H104" s="17" t="s">
+        <v>18</v>
       </c>
       <c r="I104" s="17" t="s">
         <v>18</v>
@@ -4344,7 +4344,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="14" t="s">
         <v>47</v>
       </c>
@@ -4367,11 +4367,11 @@
       <c r="I105" s="15">
         <v>0</v>
       </c>
-      <c r="J105" s="15">
+      <c r="J105" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K105" s="15">
         <v>0</v>
-      </c>
-      <c r="K105" s="15" t="s">
-        <v>18</v>
       </c>
       <c r="L105" s="15">
         <v>0</v>
@@ -4383,44 +4383,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="16" t="s">
         <v>48</v>
       </c>
       <c r="C106" s="17"/>
       <c r="D106" s="17"/>
       <c r="E106" s="17">
-        <v>2765016</v>
+        <v>2903429</v>
       </c>
       <c r="F106" s="17">
-        <v>2903429</v>
+        <v>2355004</v>
       </c>
       <c r="G106" s="17">
-        <v>2355004</v>
+        <v>3194445</v>
       </c>
       <c r="H106" s="17">
-        <v>3194445</v>
+        <v>8454826</v>
       </c>
       <c r="I106" s="17">
-        <v>8454826</v>
+        <v>6172522</v>
       </c>
       <c r="J106" s="17">
-        <v>6172522</v>
+        <v>0</v>
       </c>
       <c r="K106" s="17">
-        <v>0</v>
+        <v>5629545</v>
       </c>
       <c r="L106" s="17">
-        <v>5629545</v>
+        <v>6223604</v>
       </c>
       <c r="M106" s="17">
-        <v>6223604</v>
+        <v>7027241</v>
       </c>
       <c r="N106" s="17">
-        <v>7027241</v>
-      </c>
-    </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+        <v>6440315</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
@@ -4435,7 +4435,7 @@
       <c r="M107" s="1"/>
       <c r="N107" s="1"/>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -4450,7 +4450,7 @@
       <c r="M108" s="1"/>
       <c r="N108" s="1"/>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -4465,7 +4465,7 @@
       <c r="M109" s="1"/>
       <c r="N109" s="1"/>
     </row>
-    <row r="110" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B110" s="7" t="s">
         <v>54</v>
       </c>
@@ -4502,7 +4502,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -4517,7 +4517,7 @@
       <c r="M111" s="1"/>
       <c r="N111" s="1"/>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="8" t="s">
         <v>55</v>
       </c>
@@ -4534,7 +4534,7 @@
       <c r="M112" s="9"/>
       <c r="N112" s="9"/>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="10" t="s">
         <v>16</v>
       </c>
@@ -4573,7 +4573,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="12" t="s">
         <v>19</v>
       </c>
@@ -4612,7 +4612,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B115" s="10" t="s">
         <v>20</v>
       </c>
@@ -4651,7 +4651,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="12" t="s">
         <v>21</v>
       </c>
@@ -4660,37 +4660,37 @@
       </c>
       <c r="D116" s="13"/>
       <c r="E116" s="13">
-        <v>77997</v>
+        <v>96222</v>
       </c>
       <c r="F116" s="13">
-        <v>96222</v>
+        <v>128577</v>
       </c>
       <c r="G116" s="13">
-        <v>128577</v>
+        <v>114287</v>
       </c>
       <c r="H116" s="13">
-        <v>114287</v>
+        <v>118552</v>
       </c>
       <c r="I116" s="13">
-        <v>118552</v>
+        <v>94733</v>
       </c>
       <c r="J116" s="13">
-        <v>94733</v>
+        <v>103399</v>
       </c>
       <c r="K116" s="13">
-        <v>103399</v>
+        <v>106031</v>
       </c>
       <c r="L116" s="13">
-        <v>106031</v>
+        <v>145727</v>
       </c>
       <c r="M116" s="13">
-        <v>145727</v>
+        <v>195450</v>
       </c>
       <c r="N116" s="13">
-        <v>195450</v>
-      </c>
-    </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+        <v>223268</v>
+      </c>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="10" t="s">
         <v>22</v>
       </c>
@@ -4699,37 +4699,37 @@
       </c>
       <c r="D117" s="11"/>
       <c r="E117" s="11">
-        <v>1809</v>
+        <v>2801</v>
       </c>
       <c r="F117" s="11">
-        <v>2801</v>
+        <v>2799</v>
       </c>
       <c r="G117" s="11">
-        <v>2799</v>
+        <v>3081</v>
       </c>
       <c r="H117" s="11">
-        <v>3081</v>
+        <v>3032</v>
       </c>
       <c r="I117" s="11">
-        <v>3032</v>
+        <v>3635</v>
       </c>
       <c r="J117" s="11">
-        <v>3635</v>
+        <v>2989</v>
       </c>
       <c r="K117" s="11">
-        <v>2989</v>
+        <v>3816</v>
       </c>
       <c r="L117" s="11">
-        <v>3816</v>
+        <v>5167</v>
       </c>
       <c r="M117" s="11">
-        <v>5167</v>
+        <v>6074</v>
       </c>
       <c r="N117" s="11">
-        <v>6074</v>
-      </c>
-    </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+        <v>6737</v>
+      </c>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" s="12" t="s">
         <v>23</v>
       </c>
@@ -4768,7 +4768,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="10" t="s">
         <v>24</v>
       </c>
@@ -4807,7 +4807,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="12" t="s">
         <v>25</v>
       </c>
@@ -4846,7 +4846,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="10" t="s">
         <v>26</v>
       </c>
@@ -4885,7 +4885,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="12" t="s">
         <v>27</v>
       </c>
@@ -4924,7 +4924,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B123" s="10" t="s">
         <v>28</v>
       </c>
@@ -4963,7 +4963,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" s="12" t="s">
         <v>29</v>
       </c>
@@ -5002,7 +5002,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B125" s="10" t="s">
         <v>30</v>
       </c>
@@ -5041,7 +5041,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="12" t="s">
         <v>31</v>
       </c>
@@ -5080,7 +5080,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="10" t="s">
         <v>32</v>
       </c>
@@ -5119,7 +5119,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="12" t="s">
         <v>33</v>
       </c>
@@ -5158,7 +5158,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B129" s="10" t="s">
         <v>34</v>
       </c>
@@ -5197,7 +5197,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B130" s="12" t="s">
         <v>35</v>
       </c>
@@ -5236,7 +5236,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B131" s="10" t="s">
         <v>36</v>
       </c>
@@ -5245,37 +5245,37 @@
       </c>
       <c r="D131" s="11"/>
       <c r="E131" s="11">
-        <v>34244</v>
+        <v>34799</v>
       </c>
       <c r="F131" s="11">
-        <v>34799</v>
+        <v>44017</v>
       </c>
       <c r="G131" s="11">
-        <v>44017</v>
+        <v>42031</v>
       </c>
       <c r="H131" s="11">
-        <v>42031</v>
+        <v>138003</v>
       </c>
       <c r="I131" s="11">
-        <v>138003</v>
+        <v>68538</v>
       </c>
       <c r="J131" s="11">
-        <v>68538</v>
+        <v>50798</v>
       </c>
       <c r="K131" s="11">
-        <v>50798</v>
+        <v>70345</v>
       </c>
       <c r="L131" s="11">
-        <v>70345</v>
+        <v>86860</v>
       </c>
       <c r="M131" s="11">
-        <v>86860</v>
+        <v>75023</v>
       </c>
       <c r="N131" s="11">
-        <v>75023</v>
-      </c>
-    </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+        <v>116233</v>
+      </c>
+    </row>
+    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B132" s="12" t="s">
         <v>37</v>
       </c>
@@ -5284,37 +5284,37 @@
       </c>
       <c r="D132" s="13"/>
       <c r="E132" s="13">
-        <v>19256</v>
+        <v>18303</v>
       </c>
       <c r="F132" s="13">
-        <v>18303</v>
+        <v>22449</v>
       </c>
       <c r="G132" s="13">
-        <v>22449</v>
+        <v>32993</v>
       </c>
       <c r="H132" s="13">
-        <v>32993</v>
+        <v>33505</v>
       </c>
       <c r="I132" s="13">
-        <v>33505</v>
+        <v>29499</v>
       </c>
       <c r="J132" s="13">
-        <v>29499</v>
+        <v>28993</v>
       </c>
       <c r="K132" s="13">
-        <v>28993</v>
+        <v>39038</v>
       </c>
       <c r="L132" s="13">
-        <v>39038</v>
+        <v>60188</v>
       </c>
       <c r="M132" s="13">
-        <v>60188</v>
+        <v>66480</v>
       </c>
       <c r="N132" s="13">
-        <v>66480</v>
-      </c>
-    </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+        <v>110157</v>
+      </c>
+    </row>
+    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B133" s="8" t="s">
         <v>57</v>
       </c>
@@ -5331,7 +5331,7 @@
       <c r="M133" s="9"/>
       <c r="N133" s="9"/>
     </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B134" s="10" t="s">
         <v>16</v>
       </c>
@@ -5370,7 +5370,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B135" s="12" t="s">
         <v>19</v>
       </c>
@@ -5409,7 +5409,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B136" s="10" t="s">
         <v>20</v>
       </c>
@@ -5448,7 +5448,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B137" s="12" t="s">
         <v>21</v>
       </c>
@@ -5457,37 +5457,37 @@
       </c>
       <c r="D137" s="13"/>
       <c r="E137" s="13">
-        <v>90439</v>
+        <v>89479</v>
       </c>
       <c r="F137" s="13">
-        <v>89479</v>
-      </c>
-      <c r="G137" s="13">
         <v>101200</v>
       </c>
+      <c r="G137" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="H137" s="13" t="s">
         <v>18</v>
       </c>
       <c r="I137" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J137" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K137" s="13">
+      <c r="J137" s="13">
         <v>104133</v>
       </c>
+      <c r="K137" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="L137" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="M137" s="13" t="s">
-        <v>18</v>
+      <c r="M137" s="13">
+        <v>134165</v>
       </c>
       <c r="N137" s="13">
-        <v>134165</v>
-      </c>
-    </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+        <v>107429</v>
+      </c>
+    </row>
+    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B138" s="10" t="s">
         <v>22</v>
       </c>
@@ -5496,37 +5496,37 @@
       </c>
       <c r="D138" s="11"/>
       <c r="E138" s="11">
-        <v>5982</v>
+        <v>2346</v>
       </c>
       <c r="F138" s="11">
-        <v>2346</v>
+        <v>19357</v>
       </c>
       <c r="G138" s="11">
-        <v>19357</v>
+        <v>9579</v>
       </c>
       <c r="H138" s="11">
-        <v>9579</v>
+        <v>2870</v>
       </c>
       <c r="I138" s="11">
-        <v>2870</v>
+        <v>3931</v>
       </c>
       <c r="J138" s="11">
-        <v>3931</v>
-      </c>
-      <c r="K138" s="11">
         <v>5530</v>
       </c>
+      <c r="K138" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="L138" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="M138" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="N138" s="11">
+      <c r="M138" s="11">
         <v>5459</v>
       </c>
-    </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N138" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="139" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B139" s="12" t="s">
         <v>24</v>
       </c>
@@ -5565,7 +5565,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B140" s="10" t="s">
         <v>26</v>
       </c>
@@ -5604,7 +5604,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B141" s="12" t="s">
         <v>27</v>
       </c>
@@ -5643,7 +5643,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B142" s="10" t="s">
         <v>28</v>
       </c>
@@ -5682,7 +5682,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B143" s="12" t="s">
         <v>29</v>
       </c>
@@ -5721,7 +5721,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B144" s="10" t="s">
         <v>30</v>
       </c>
@@ -5760,7 +5760,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B145" s="12" t="s">
         <v>31</v>
       </c>
@@ -5799,7 +5799,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B146" s="10" t="s">
         <v>34</v>
       </c>
@@ -5838,7 +5838,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B147" s="12" t="s">
         <v>36</v>
       </c>
@@ -5847,37 +5847,37 @@
       </c>
       <c r="D147" s="13"/>
       <c r="E147" s="13">
-        <v>62697</v>
+        <v>56340</v>
       </c>
       <c r="F147" s="13">
-        <v>56340</v>
+        <v>32045</v>
       </c>
       <c r="G147" s="13">
-        <v>32045</v>
-      </c>
-      <c r="H147" s="13">
         <v>107175</v>
       </c>
-      <c r="I147" s="13" t="s">
-        <v>18</v>
+      <c r="H147" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I147" s="13">
+        <v>335275</v>
       </c>
       <c r="J147" s="13">
-        <v>335275</v>
+        <v>153148</v>
       </c>
       <c r="K147" s="13">
-        <v>153148</v>
+        <v>231491</v>
       </c>
       <c r="L147" s="13">
-        <v>231491</v>
+        <v>550796</v>
       </c>
       <c r="M147" s="13">
-        <v>550796</v>
+        <v>27220</v>
       </c>
       <c r="N147" s="13">
-        <v>27220</v>
-      </c>
-    </row>
-    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
+        <v>61102</v>
+      </c>
+    </row>
+    <row r="148" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B148" s="10" t="s">
         <v>37</v>
       </c>
@@ -5886,37 +5886,37 @@
       </c>
       <c r="D148" s="11"/>
       <c r="E148" s="11">
-        <v>72299</v>
+        <v>15288</v>
       </c>
       <c r="F148" s="11">
-        <v>15288</v>
+        <v>94901</v>
       </c>
       <c r="G148" s="11">
-        <v>94901</v>
+        <v>150347</v>
       </c>
       <c r="H148" s="11">
-        <v>150347</v>
+        <v>126958</v>
       </c>
       <c r="I148" s="11">
-        <v>126958</v>
+        <v>206517</v>
       </c>
       <c r="J148" s="11">
-        <v>206517</v>
+        <v>144006</v>
       </c>
       <c r="K148" s="11">
-        <v>144006</v>
+        <v>88768</v>
       </c>
       <c r="L148" s="11">
-        <v>88768</v>
+        <v>306260</v>
       </c>
       <c r="M148" s="11">
-        <v>306260</v>
+        <v>91963</v>
       </c>
       <c r="N148" s="11">
-        <v>91963</v>
-      </c>
-    </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
+        <v>107105</v>
+      </c>
+    </row>
+    <row r="149" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B149" s="8" t="s">
         <v>58</v>
       </c>
@@ -5933,7 +5933,7 @@
       <c r="M149" s="9"/>
       <c r="N149" s="9"/>
     </row>
-    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B150" s="10" t="s">
         <v>42</v>
       </c>
@@ -5972,7 +5972,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B151" s="12" t="s">
         <v>43</v>
       </c>
@@ -6007,11 +6007,11 @@
       <c r="M151" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="N151" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N151" s="13">
+        <v>42838</v>
+      </c>
+    </row>
+    <row r="152" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -6026,7 +6026,7 @@
       <c r="M152" s="1"/>
       <c r="N152" s="1"/>
     </row>
-    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -6041,7 +6041,7 @@
       <c r="M153" s="1"/>
       <c r="N153" s="1"/>
     </row>
-    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -6056,7 +6056,7 @@
       <c r="M154" s="1"/>
       <c r="N154" s="1"/>
     </row>
-    <row r="155" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B155" s="7" t="s">
         <v>59</v>
       </c>
@@ -6093,7 +6093,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
@@ -6108,7 +6108,7 @@
       <c r="M156" s="1"/>
       <c r="N156" s="1"/>
     </row>
-    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B157" s="8" t="s">
         <v>60</v>
       </c>
@@ -6125,7 +6125,7 @@
       <c r="M157" s="9"/>
       <c r="N157" s="9"/>
     </row>
-    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B158" s="10" t="s">
         <v>16</v>
       </c>
@@ -6164,7 +6164,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B159" s="12" t="s">
         <v>19</v>
       </c>
@@ -6203,7 +6203,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B160" s="10" t="s">
         <v>20</v>
       </c>
@@ -6242,7 +6242,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B161" s="12" t="s">
         <v>21</v>
       </c>
@@ -6251,37 +6251,37 @@
       </c>
       <c r="D161" s="13"/>
       <c r="E161" s="13">
-        <v>-127152</v>
+        <v>-205919</v>
       </c>
       <c r="F161" s="13">
-        <v>-205919</v>
+        <v>-73541</v>
       </c>
       <c r="G161" s="13">
-        <v>-73541</v>
+        <v>-177923</v>
       </c>
       <c r="H161" s="13">
-        <v>-177923</v>
+        <v>-296592</v>
       </c>
       <c r="I161" s="13">
-        <v>-296592</v>
+        <v>-382749</v>
       </c>
       <c r="J161" s="13">
-        <v>-382749</v>
+        <v>-132255</v>
       </c>
       <c r="K161" s="13">
-        <v>-132255</v>
+        <v>-334978</v>
       </c>
       <c r="L161" s="13">
-        <v>-334978</v>
+        <v>-371833</v>
       </c>
       <c r="M161" s="13">
-        <v>-371833</v>
+        <v>-134207</v>
       </c>
       <c r="N161" s="13">
-        <v>-134207</v>
-      </c>
-    </row>
-    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-529357</v>
+      </c>
+    </row>
+    <row r="162" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B162" s="10" t="s">
         <v>22</v>
       </c>
@@ -6290,37 +6290,37 @@
       </c>
       <c r="D162" s="11"/>
       <c r="E162" s="11">
-        <v>-279716</v>
+        <v>-333886</v>
       </c>
       <c r="F162" s="11">
-        <v>-333886</v>
+        <v>-269146</v>
       </c>
       <c r="G162" s="11">
-        <v>-269146</v>
+        <v>-277574</v>
       </c>
       <c r="H162" s="11">
-        <v>-277574</v>
+        <v>-471662</v>
       </c>
       <c r="I162" s="11">
-        <v>-471662</v>
+        <v>-726163</v>
       </c>
       <c r="J162" s="11">
-        <v>-726163</v>
+        <v>-354056</v>
       </c>
       <c r="K162" s="11">
-        <v>-354056</v>
+        <v>-683693</v>
       </c>
       <c r="L162" s="11">
-        <v>-683693</v>
+        <v>-723936</v>
       </c>
       <c r="M162" s="11">
-        <v>-723936</v>
+        <v>-976319</v>
       </c>
       <c r="N162" s="11">
-        <v>-976319</v>
-      </c>
-    </row>
-    <row r="163" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-577548</v>
+      </c>
+    </row>
+    <row r="163" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B163" s="12" t="s">
         <v>23</v>
       </c>
@@ -6359,7 +6359,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B164" s="10" t="s">
         <v>24</v>
       </c>
@@ -6398,7 +6398,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B165" s="12" t="s">
         <v>25</v>
       </c>
@@ -6437,7 +6437,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B166" s="10" t="s">
         <v>26</v>
       </c>
@@ -6476,7 +6476,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B167" s="12" t="s">
         <v>27</v>
       </c>
@@ -6515,7 +6515,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B168" s="10" t="s">
         <v>28</v>
       </c>
@@ -6554,7 +6554,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B169" s="12" t="s">
         <v>29</v>
       </c>
@@ -6593,7 +6593,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="170" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B170" s="10" t="s">
         <v>30</v>
       </c>
@@ -6632,7 +6632,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="171" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B171" s="12" t="s">
         <v>31</v>
       </c>
@@ -6671,7 +6671,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B172" s="10" t="s">
         <v>32</v>
       </c>
@@ -6710,7 +6710,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B173" s="12" t="s">
         <v>33</v>
       </c>
@@ -6749,7 +6749,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B174" s="10" t="s">
         <v>34</v>
       </c>
@@ -6788,7 +6788,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="175" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B175" s="12" t="s">
         <v>35</v>
       </c>
@@ -6827,7 +6827,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B176" s="10" t="s">
         <v>36</v>
       </c>
@@ -6836,37 +6836,37 @@
       </c>
       <c r="D176" s="11"/>
       <c r="E176" s="11">
-        <v>-566411</v>
+        <v>-579931</v>
       </c>
       <c r="F176" s="11">
-        <v>-579931</v>
+        <v>-538358</v>
       </c>
       <c r="G176" s="11">
-        <v>-538358</v>
+        <v>-857591</v>
       </c>
       <c r="H176" s="11">
-        <v>-857591</v>
+        <v>-2236283</v>
       </c>
       <c r="I176" s="11">
-        <v>-2236283</v>
+        <v>-1324673</v>
       </c>
       <c r="J176" s="11">
-        <v>-1324673</v>
+        <v>-831527</v>
       </c>
       <c r="K176" s="11">
-        <v>-831527</v>
+        <v>-1456239</v>
       </c>
       <c r="L176" s="11">
-        <v>-1456239</v>
+        <v>-1461908</v>
       </c>
       <c r="M176" s="11">
-        <v>-1461908</v>
+        <v>-2332928</v>
       </c>
       <c r="N176" s="11">
-        <v>-2332928</v>
-      </c>
-    </row>
-    <row r="177" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-882047</v>
+      </c>
+    </row>
+    <row r="177" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B177" s="12" t="s">
         <v>37</v>
       </c>
@@ -6875,74 +6875,74 @@
       </c>
       <c r="D177" s="13"/>
       <c r="E177" s="13">
-        <v>-118173</v>
+        <v>-275316</v>
       </c>
       <c r="F177" s="13">
-        <v>-275316</v>
+        <v>-203122</v>
       </c>
       <c r="G177" s="13">
-        <v>-203122</v>
+        <v>-193990</v>
       </c>
       <c r="H177" s="13">
-        <v>-193990</v>
+        <v>-311956</v>
       </c>
       <c r="I177" s="13">
-        <v>-311956</v>
+        <v>-410317</v>
       </c>
       <c r="J177" s="13">
-        <v>-410317</v>
+        <v>-525952</v>
       </c>
       <c r="K177" s="13">
-        <v>-525952</v>
+        <v>-547400</v>
       </c>
       <c r="L177" s="13">
-        <v>-547400</v>
+        <v>-586415</v>
       </c>
       <c r="M177" s="13">
-        <v>-586415</v>
+        <v>-409746</v>
       </c>
       <c r="N177" s="13">
-        <v>-409746</v>
-      </c>
-    </row>
-    <row r="178" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-1070125</v>
+      </c>
+    </row>
+    <row r="178" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B178" s="14" t="s">
         <v>61</v>
       </c>
       <c r="C178" s="15"/>
       <c r="D178" s="15"/>
       <c r="E178" s="15">
-        <v>-1091452</v>
+        <v>-1395052</v>
       </c>
       <c r="F178" s="15">
-        <v>-1395052</v>
+        <v>-1084167</v>
       </c>
       <c r="G178" s="15">
-        <v>-1084167</v>
+        <v>-1507078</v>
       </c>
       <c r="H178" s="15">
-        <v>-1507078</v>
+        <v>-3316493</v>
       </c>
       <c r="I178" s="15">
-        <v>-3316493</v>
+        <v>-2843902</v>
       </c>
       <c r="J178" s="15">
-        <v>-2843902</v>
+        <v>-1843790</v>
       </c>
       <c r="K178" s="15">
-        <v>-1843790</v>
+        <v>-3022310</v>
       </c>
       <c r="L178" s="15">
-        <v>-3022310</v>
+        <v>-3144092</v>
       </c>
       <c r="M178" s="15">
-        <v>-3144092</v>
+        <v>-3853200</v>
       </c>
       <c r="N178" s="15">
-        <v>-3853200</v>
-      </c>
-    </row>
-    <row r="179" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-3059077</v>
+      </c>
+    </row>
+    <row r="179" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B179" s="8" t="s">
         <v>62</v>
       </c>
@@ -6959,7 +6959,7 @@
       <c r="M179" s="9"/>
       <c r="N179" s="9"/>
     </row>
-    <row r="180" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B180" s="10" t="s">
         <v>16</v>
       </c>
@@ -6998,7 +6998,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="181" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B181" s="12" t="s">
         <v>19</v>
       </c>
@@ -7037,7 +7037,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="182" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B182" s="10" t="s">
         <v>20</v>
       </c>
@@ -7076,7 +7076,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="183" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B183" s="12" t="s">
         <v>21</v>
       </c>
@@ -7085,13 +7085,13 @@
       </c>
       <c r="D183" s="13"/>
       <c r="E183" s="13">
-        <v>-1900</v>
+        <v>-1306</v>
       </c>
       <c r="F183" s="13">
-        <v>-1306</v>
+        <v>-615</v>
       </c>
       <c r="G183" s="13">
-        <v>-615</v>
+        <v>0</v>
       </c>
       <c r="H183" s="13">
         <v>0</v>
@@ -7100,22 +7100,22 @@
         <v>0</v>
       </c>
       <c r="J183" s="13">
+        <v>-2653</v>
+      </c>
+      <c r="K183" s="13">
         <v>0</v>
-      </c>
-      <c r="K183" s="13">
-        <v>-2653</v>
       </c>
       <c r="L183" s="13">
         <v>0</v>
       </c>
       <c r="M183" s="13">
-        <v>0</v>
+        <v>-8765</v>
       </c>
       <c r="N183" s="13">
-        <v>-8765</v>
-      </c>
-    </row>
-    <row r="184" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-3569</v>
+      </c>
+    </row>
+    <row r="184" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B184" s="10" t="s">
         <v>22</v>
       </c>
@@ -7124,37 +7124,37 @@
       </c>
       <c r="D184" s="11"/>
       <c r="E184" s="11">
-        <v>-6478</v>
+        <v>-4257</v>
       </c>
       <c r="F184" s="11">
-        <v>-4257</v>
+        <v>1363</v>
       </c>
       <c r="G184" s="11">
-        <v>1363</v>
+        <v>-844</v>
       </c>
       <c r="H184" s="11">
-        <v>-844</v>
+        <v>-1135</v>
       </c>
       <c r="I184" s="11">
-        <v>-1135</v>
+        <v>-6386</v>
       </c>
       <c r="J184" s="11">
-        <v>-6386</v>
+        <v>-3221</v>
       </c>
       <c r="K184" s="11">
-        <v>-3221</v>
+        <v>0</v>
       </c>
       <c r="L184" s="11">
         <v>0</v>
       </c>
       <c r="M184" s="11">
-        <v>0</v>
+        <v>-11303</v>
       </c>
       <c r="N184" s="11">
-        <v>-11303</v>
-      </c>
-    </row>
-    <row r="185" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-117</v>
+      </c>
+    </row>
+    <row r="185" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B185" s="12" t="s">
         <v>24</v>
       </c>
@@ -7193,7 +7193,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="186" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B186" s="10" t="s">
         <v>26</v>
       </c>
@@ -7232,7 +7232,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="187" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B187" s="12" t="s">
         <v>27</v>
       </c>
@@ -7271,7 +7271,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="188" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B188" s="10" t="s">
         <v>28</v>
       </c>
@@ -7310,7 +7310,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="189" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B189" s="12" t="s">
         <v>29</v>
       </c>
@@ -7349,7 +7349,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="190" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B190" s="10" t="s">
         <v>30</v>
       </c>
@@ -7388,7 +7388,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="191" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B191" s="12" t="s">
         <v>31</v>
       </c>
@@ -7427,7 +7427,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="192" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B192" s="10" t="s">
         <v>34</v>
       </c>
@@ -7466,7 +7466,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="193" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B193" s="12" t="s">
         <v>36</v>
       </c>
@@ -7475,37 +7475,37 @@
       </c>
       <c r="D193" s="13"/>
       <c r="E193" s="13">
-        <v>-24769</v>
+        <v>-30497</v>
       </c>
       <c r="F193" s="13">
-        <v>-30497</v>
+        <v>11375</v>
       </c>
       <c r="G193" s="13">
-        <v>11375</v>
+        <v>-17350</v>
       </c>
       <c r="H193" s="13">
-        <v>-17350</v>
+        <v>2657</v>
       </c>
       <c r="I193" s="13">
-        <v>2657</v>
+        <v>-43045</v>
       </c>
       <c r="J193" s="13">
-        <v>-43045</v>
+        <v>-14918</v>
       </c>
       <c r="K193" s="13">
-        <v>-14918</v>
+        <v>-19214</v>
       </c>
       <c r="L193" s="13">
-        <v>-19214</v>
+        <v>-13993</v>
       </c>
       <c r="M193" s="13">
-        <v>-13993</v>
+        <v>2734</v>
       </c>
       <c r="N193" s="13">
-        <v>2734</v>
-      </c>
-    </row>
-    <row r="194" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-28747</v>
+      </c>
+    </row>
+    <row r="194" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B194" s="10" t="s">
         <v>37</v>
       </c>
@@ -7514,74 +7514,74 @@
       </c>
       <c r="D194" s="11"/>
       <c r="E194" s="11">
-        <v>-132670</v>
+        <v>-4824</v>
       </c>
       <c r="F194" s="11">
-        <v>-4824</v>
+        <v>22290</v>
       </c>
       <c r="G194" s="11">
-        <v>22290</v>
+        <v>-81533</v>
       </c>
       <c r="H194" s="11">
-        <v>-81533</v>
+        <v>-135649</v>
       </c>
       <c r="I194" s="11">
-        <v>-135649</v>
+        <v>-353</v>
       </c>
       <c r="J194" s="11">
-        <v>-353</v>
+        <v>-92297</v>
       </c>
       <c r="K194" s="11">
-        <v>-92297</v>
+        <v>-21625</v>
       </c>
       <c r="L194" s="11">
-        <v>-21625</v>
+        <v>906</v>
       </c>
       <c r="M194" s="11">
-        <v>906</v>
+        <v>-46573</v>
       </c>
       <c r="N194" s="11">
-        <v>-46573</v>
-      </c>
-    </row>
-    <row r="195" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-63587</v>
+      </c>
+    </row>
+    <row r="195" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B195" s="16" t="s">
         <v>63</v>
       </c>
       <c r="C195" s="17"/>
       <c r="D195" s="17"/>
       <c r="E195" s="17">
-        <v>-165817</v>
+        <v>-40884</v>
       </c>
       <c r="F195" s="17">
-        <v>-40884</v>
+        <v>34413</v>
       </c>
       <c r="G195" s="17">
-        <v>34413</v>
+        <v>-99727</v>
       </c>
       <c r="H195" s="17">
-        <v>-99727</v>
+        <v>-134127</v>
       </c>
       <c r="I195" s="17">
-        <v>-134127</v>
+        <v>-49784</v>
       </c>
       <c r="J195" s="17">
-        <v>-49784</v>
+        <v>-113089</v>
       </c>
       <c r="K195" s="17">
-        <v>-113089</v>
+        <v>-40839</v>
       </c>
       <c r="L195" s="17">
-        <v>-40839</v>
+        <v>-13087</v>
       </c>
       <c r="M195" s="17">
-        <v>-13087</v>
+        <v>-63907</v>
       </c>
       <c r="N195" s="17">
-        <v>-63907</v>
-      </c>
-    </row>
-    <row r="196" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-96020</v>
+      </c>
+    </row>
+    <row r="196" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B196" s="8" t="s">
         <v>64</v>
       </c>
@@ -7598,7 +7598,7 @@
       <c r="M196" s="9"/>
       <c r="N196" s="9"/>
     </row>
-    <row r="197" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B197" s="10" t="s">
         <v>42</v>
       </c>
@@ -7637,7 +7637,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="198" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B198" s="12" t="s">
         <v>43</v>
       </c>
@@ -7646,74 +7646,74 @@
       </c>
       <c r="D198" s="13"/>
       <c r="E198" s="13">
-        <v>-10664</v>
+        <v>-20607</v>
       </c>
       <c r="F198" s="13">
-        <v>-20607</v>
+        <v>-10283</v>
       </c>
       <c r="G198" s="13">
-        <v>-10283</v>
+        <v>-13102</v>
       </c>
       <c r="H198" s="13">
-        <v>-13102</v>
+        <v>-26440</v>
       </c>
       <c r="I198" s="13">
-        <v>-26440</v>
+        <v>-35567</v>
       </c>
       <c r="J198" s="13">
-        <v>-35567</v>
+        <v>45481</v>
       </c>
       <c r="K198" s="13">
-        <v>45481</v>
+        <v>-12523</v>
       </c>
       <c r="L198" s="13">
-        <v>-12523</v>
+        <v>-35142</v>
       </c>
       <c r="M198" s="13">
-        <v>-35142</v>
+        <v>-39559</v>
       </c>
       <c r="N198" s="13">
-        <v>-39559</v>
-      </c>
-    </row>
-    <row r="199" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-29692</v>
+      </c>
+    </row>
+    <row r="199" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B199" s="14" t="s">
         <v>65</v>
       </c>
       <c r="C199" s="15"/>
       <c r="D199" s="15"/>
       <c r="E199" s="15">
-        <v>-10664</v>
+        <v>-20607</v>
       </c>
       <c r="F199" s="15">
-        <v>-20607</v>
+        <v>-10283</v>
       </c>
       <c r="G199" s="15">
-        <v>-10283</v>
+        <v>-13102</v>
       </c>
       <c r="H199" s="15">
-        <v>-13102</v>
+        <v>-26440</v>
       </c>
       <c r="I199" s="15">
-        <v>-26440</v>
+        <v>-35567</v>
       </c>
       <c r="J199" s="15">
-        <v>-35567</v>
+        <v>45481</v>
       </c>
       <c r="K199" s="15">
-        <v>45481</v>
+        <v>-12523</v>
       </c>
       <c r="L199" s="15">
-        <v>-12523</v>
+        <v>-35142</v>
       </c>
       <c r="M199" s="15">
-        <v>-35142</v>
+        <v>-39559</v>
       </c>
       <c r="N199" s="15">
-        <v>-39559</v>
-      </c>
-    </row>
-    <row r="200" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-29692</v>
+      </c>
+    </row>
+    <row r="200" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B200" s="16" t="s">
         <v>45</v>
       </c>
@@ -7730,8 +7730,8 @@
       <c r="G200" s="17">
         <v>0</v>
       </c>
-      <c r="H200" s="17">
-        <v>0</v>
+      <c r="H200" s="17" t="s">
+        <v>18</v>
       </c>
       <c r="I200" s="17" t="s">
         <v>18</v>
@@ -7752,7 +7752,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="201" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B201" s="14" t="s">
         <v>47</v>
       </c>
@@ -7791,44 +7791,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B202" s="16" t="s">
         <v>48</v>
       </c>
       <c r="C202" s="17"/>
       <c r="D202" s="17"/>
       <c r="E202" s="17">
-        <v>-1267933</v>
+        <v>-1456543</v>
       </c>
       <c r="F202" s="17">
-        <v>-1456543</v>
+        <v>-1060037</v>
       </c>
       <c r="G202" s="17">
-        <v>-1060037</v>
+        <v>-1619907</v>
       </c>
       <c r="H202" s="17">
-        <v>-1619907</v>
+        <v>-3477060</v>
       </c>
       <c r="I202" s="17">
-        <v>-3477060</v>
+        <v>-2929253</v>
       </c>
       <c r="J202" s="17">
-        <v>-2929253</v>
+        <v>-1911398</v>
       </c>
       <c r="K202" s="17">
-        <v>-1911398</v>
+        <v>-3075672</v>
       </c>
       <c r="L202" s="17">
-        <v>-3075672</v>
+        <v>-3192321</v>
       </c>
       <c r="M202" s="17">
-        <v>-3192321</v>
+        <v>-3956666</v>
       </c>
       <c r="N202" s="17">
-        <v>-3956666</v>
-      </c>
-    </row>
-    <row r="203" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-3184789</v>
+      </c>
+    </row>
+    <row r="203" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
@@ -7843,7 +7843,7 @@
       <c r="M203" s="1"/>
       <c r="N203" s="1"/>
     </row>
-    <row r="204" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
@@ -7858,7 +7858,7 @@
       <c r="M204" s="1"/>
       <c r="N204" s="1"/>
     </row>
-    <row r="205" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
@@ -7873,7 +7873,7 @@
       <c r="M205" s="1"/>
       <c r="N205" s="1"/>
     </row>
-    <row r="206" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B206" s="7" t="s">
         <v>66</v>
       </c>
@@ -7910,7 +7910,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="207" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
@@ -7925,7 +7925,7 @@
       <c r="M207" s="1"/>
       <c r="N207" s="1"/>
     </row>
-    <row r="208" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B208" s="8" t="s">
         <v>67</v>
       </c>
@@ -7942,7 +7942,7 @@
       <c r="M208" s="9"/>
       <c r="N208" s="9"/>
     </row>
-    <row r="209" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B209" s="10" t="s">
         <v>16</v>
       </c>
@@ -7981,7 +7981,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="210" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B210" s="12" t="s">
         <v>19</v>
       </c>
@@ -8020,7 +8020,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="211" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B211" s="10" t="s">
         <v>20</v>
       </c>
@@ -8059,7 +8059,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="212" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B212" s="12" t="s">
         <v>21</v>
       </c>
@@ -8068,37 +8068,37 @@
       </c>
       <c r="D212" s="13"/>
       <c r="E212" s="13">
-        <v>148236</v>
+        <v>205552</v>
       </c>
       <c r="F212" s="13">
-        <v>205552</v>
+        <v>149143</v>
       </c>
       <c r="G212" s="13">
-        <v>149143</v>
+        <v>152615</v>
       </c>
       <c r="H212" s="13">
-        <v>152615</v>
+        <v>152325</v>
       </c>
       <c r="I212" s="13">
-        <v>152325</v>
+        <v>94950</v>
       </c>
       <c r="J212" s="13">
-        <v>94950</v>
+        <v>273608</v>
       </c>
       <c r="K212" s="13">
-        <v>273608</v>
+        <v>427048</v>
       </c>
       <c r="L212" s="13">
-        <v>427048</v>
+        <v>198182</v>
       </c>
       <c r="M212" s="13">
-        <v>198182</v>
+        <v>363703</v>
       </c>
       <c r="N212" s="13">
-        <v>363703</v>
-      </c>
-    </row>
-    <row r="213" spans="2:14" x14ac:dyDescent="0.25">
+        <v>177235</v>
+      </c>
+    </row>
+    <row r="213" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B213" s="10" t="s">
         <v>22</v>
       </c>
@@ -8107,37 +8107,37 @@
       </c>
       <c r="D213" s="11"/>
       <c r="E213" s="11">
-        <v>269145</v>
+        <v>363674</v>
       </c>
       <c r="F213" s="11">
-        <v>363674</v>
+        <v>163897</v>
       </c>
       <c r="G213" s="11">
-        <v>163897</v>
+        <v>303509</v>
       </c>
       <c r="H213" s="11">
-        <v>303509</v>
+        <v>243394</v>
       </c>
       <c r="I213" s="11">
-        <v>243394</v>
+        <v>541218</v>
       </c>
       <c r="J213" s="11">
-        <v>541218</v>
+        <v>107607</v>
       </c>
       <c r="K213" s="11">
-        <v>107607</v>
+        <v>294134</v>
       </c>
       <c r="L213" s="11">
-        <v>294134</v>
+        <v>532153</v>
       </c>
       <c r="M213" s="11">
-        <v>532153</v>
+        <v>621388</v>
       </c>
       <c r="N213" s="11">
-        <v>621388</v>
-      </c>
-    </row>
-    <row r="214" spans="2:14" x14ac:dyDescent="0.25">
+        <v>585634</v>
+      </c>
+    </row>
+    <row r="214" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B214" s="12" t="s">
         <v>23</v>
       </c>
@@ -8176,7 +8176,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="215" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B215" s="10" t="s">
         <v>24</v>
       </c>
@@ -8215,7 +8215,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="216" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B216" s="12" t="s">
         <v>25</v>
       </c>
@@ -8254,7 +8254,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="217" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B217" s="10" t="s">
         <v>26</v>
       </c>
@@ -8293,7 +8293,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="218" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B218" s="12" t="s">
         <v>27</v>
       </c>
@@ -8332,7 +8332,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="219" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B219" s="10" t="s">
         <v>28</v>
       </c>
@@ -8371,7 +8371,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="220" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B220" s="12" t="s">
         <v>29</v>
       </c>
@@ -8410,7 +8410,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="221" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B221" s="10" t="s">
         <v>30</v>
       </c>
@@ -8449,7 +8449,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="222" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B222" s="12" t="s">
         <v>31</v>
       </c>
@@ -8488,7 +8488,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="223" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B223" s="10" t="s">
         <v>32</v>
       </c>
@@ -8527,7 +8527,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="224" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B224" s="12" t="s">
         <v>33</v>
       </c>
@@ -8566,7 +8566,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="225" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B225" s="10" t="s">
         <v>34</v>
       </c>
@@ -8605,7 +8605,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="226" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B226" s="12" t="s">
         <v>35</v>
       </c>
@@ -8644,7 +8644,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="227" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B227" s="10" t="s">
         <v>36</v>
       </c>
@@ -8653,37 +8653,37 @@
       </c>
       <c r="D227" s="11"/>
       <c r="E227" s="11">
-        <v>588984</v>
+        <v>683758</v>
       </c>
       <c r="F227" s="11">
-        <v>683758</v>
+        <v>595551</v>
       </c>
       <c r="G227" s="11">
-        <v>595551</v>
+        <v>820151</v>
       </c>
       <c r="H227" s="11">
-        <v>820151</v>
+        <v>4147401</v>
       </c>
       <c r="I227" s="11">
-        <v>4147401</v>
+        <v>2103769</v>
       </c>
       <c r="J227" s="11">
-        <v>2103769</v>
+        <v>870008</v>
       </c>
       <c r="K227" s="11">
-        <v>870008</v>
+        <v>1386225</v>
       </c>
       <c r="L227" s="11">
-        <v>1386225</v>
+        <v>1693465</v>
       </c>
       <c r="M227" s="11">
-        <v>1693465</v>
+        <v>1222215</v>
       </c>
       <c r="N227" s="11">
-        <v>1222215</v>
-      </c>
-    </row>
-    <row r="228" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2018781</v>
+      </c>
+    </row>
+    <row r="228" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B228" s="12" t="s">
         <v>37</v>
       </c>
@@ -8692,74 +8692,74 @@
       </c>
       <c r="D228" s="13"/>
       <c r="E228" s="13">
-        <v>204807</v>
+        <v>117487</v>
       </c>
       <c r="F228" s="13">
-        <v>117487</v>
+        <v>107011</v>
       </c>
       <c r="G228" s="13">
-        <v>107011</v>
+        <v>144584</v>
       </c>
       <c r="H228" s="13">
-        <v>144584</v>
+        <v>202434</v>
       </c>
       <c r="I228" s="13">
-        <v>202434</v>
+        <v>320106</v>
       </c>
       <c r="J228" s="13">
-        <v>320106</v>
+        <v>1825</v>
       </c>
       <c r="K228" s="13">
-        <v>1825</v>
+        <v>343635</v>
       </c>
       <c r="L228" s="13">
-        <v>343635</v>
+        <v>564876</v>
       </c>
       <c r="M228" s="13">
-        <v>564876</v>
+        <v>747295</v>
       </c>
       <c r="N228" s="13">
-        <v>747295</v>
-      </c>
-    </row>
-    <row r="229" spans="2:14" x14ac:dyDescent="0.25">
+        <v>356718</v>
+      </c>
+    </row>
+    <row r="229" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B229" s="14" t="s">
         <v>68</v>
       </c>
       <c r="C229" s="15"/>
       <c r="D229" s="15"/>
       <c r="E229" s="15">
-        <v>1211172</v>
+        <v>1370471</v>
       </c>
       <c r="F229" s="15">
-        <v>1370471</v>
+        <v>1015602</v>
       </c>
       <c r="G229" s="15">
-        <v>1015602</v>
+        <v>1420859</v>
       </c>
       <c r="H229" s="15">
-        <v>1420859</v>
+        <v>4745554</v>
       </c>
       <c r="I229" s="15">
-        <v>4745554</v>
+        <v>3060043</v>
       </c>
       <c r="J229" s="15">
-        <v>3060043</v>
+        <v>1253048</v>
       </c>
       <c r="K229" s="15">
-        <v>1253048</v>
+        <v>2451042</v>
       </c>
       <c r="L229" s="15">
-        <v>2451042</v>
+        <v>2988676</v>
       </c>
       <c r="M229" s="15">
-        <v>2988676</v>
+        <v>2954601</v>
       </c>
       <c r="N229" s="15">
-        <v>2954601</v>
-      </c>
-    </row>
-    <row r="230" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3138368</v>
+      </c>
+    </row>
+    <row r="230" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B230" s="8" t="s">
         <v>69</v>
       </c>
@@ -8776,7 +8776,7 @@
       <c r="M230" s="9"/>
       <c r="N230" s="9"/>
     </row>
-    <row r="231" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B231" s="10" t="s">
         <v>16</v>
       </c>
@@ -8815,7 +8815,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="232" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B232" s="12" t="s">
         <v>19</v>
       </c>
@@ -8854,7 +8854,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="233" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B233" s="10" t="s">
         <v>20</v>
       </c>
@@ -8893,7 +8893,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="234" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B234" s="12" t="s">
         <v>21</v>
       </c>
@@ -8902,13 +8902,13 @@
       </c>
       <c r="D234" s="13"/>
       <c r="E234" s="13">
-        <v>3912</v>
+        <v>2625</v>
       </c>
       <c r="F234" s="13">
-        <v>2625</v>
+        <v>397</v>
       </c>
       <c r="G234" s="13">
-        <v>397</v>
+        <v>0</v>
       </c>
       <c r="H234" s="13">
         <v>0</v>
@@ -8917,22 +8917,22 @@
         <v>0</v>
       </c>
       <c r="J234" s="13">
+        <v>2033</v>
+      </c>
+      <c r="K234" s="13">
         <v>0</v>
-      </c>
-      <c r="K234" s="13">
-        <v>2033</v>
       </c>
       <c r="L234" s="13">
         <v>0</v>
       </c>
       <c r="M234" s="13">
-        <v>0</v>
+        <v>4249</v>
       </c>
       <c r="N234" s="13">
-        <v>4249</v>
-      </c>
-    </row>
-    <row r="235" spans="2:14" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="235" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B235" s="10" t="s">
         <v>22</v>
       </c>
@@ -8941,37 +8941,37 @@
       </c>
       <c r="D235" s="11"/>
       <c r="E235" s="11">
-        <v>5582</v>
+        <v>9352</v>
       </c>
       <c r="F235" s="11">
-        <v>9352</v>
+        <v>2817</v>
       </c>
       <c r="G235" s="11">
-        <v>2817</v>
+        <v>1838</v>
       </c>
       <c r="H235" s="11">
-        <v>1838</v>
+        <v>-132</v>
       </c>
       <c r="I235" s="11">
-        <v>-132</v>
+        <v>12868</v>
       </c>
       <c r="J235" s="11">
-        <v>12868</v>
+        <v>3968</v>
       </c>
       <c r="K235" s="11">
-        <v>3968</v>
+        <v>0</v>
       </c>
       <c r="L235" s="11">
         <v>0</v>
       </c>
       <c r="M235" s="11">
-        <v>0</v>
+        <v>1759</v>
       </c>
       <c r="N235" s="11">
-        <v>1759</v>
-      </c>
-    </row>
-    <row r="236" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-116</v>
+      </c>
+    </row>
+    <row r="236" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B236" s="12" t="s">
         <v>24</v>
       </c>
@@ -9010,7 +9010,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="237" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B237" s="10" t="s">
         <v>26</v>
       </c>
@@ -9049,7 +9049,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="238" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B238" s="12" t="s">
         <v>27</v>
       </c>
@@ -9088,7 +9088,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="239" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B239" s="10" t="s">
         <v>28</v>
       </c>
@@ -9127,7 +9127,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="240" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B240" s="12" t="s">
         <v>29</v>
       </c>
@@ -9166,7 +9166,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="241" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B241" s="10" t="s">
         <v>30</v>
       </c>
@@ -9205,7 +9205,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="242" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B242" s="12" t="s">
         <v>31</v>
       </c>
@@ -9244,7 +9244,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="243" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B243" s="10" t="s">
         <v>34</v>
       </c>
@@ -9283,7 +9283,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="244" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B244" s="12" t="s">
         <v>36</v>
       </c>
@@ -9292,37 +9292,37 @@
       </c>
       <c r="D244" s="13"/>
       <c r="E244" s="13">
-        <v>48460</v>
+        <v>10525</v>
       </c>
       <c r="F244" s="13">
-        <v>10525</v>
+        <v>36855</v>
       </c>
       <c r="G244" s="13">
-        <v>36855</v>
+        <v>9733</v>
       </c>
       <c r="H244" s="13">
-        <v>9733</v>
+        <v>2657</v>
       </c>
       <c r="I244" s="13">
-        <v>2657</v>
+        <v>98369</v>
       </c>
       <c r="J244" s="13">
-        <v>98369</v>
+        <v>19110</v>
       </c>
       <c r="K244" s="13">
-        <v>19110</v>
+        <v>18291</v>
       </c>
       <c r="L244" s="13">
-        <v>18291</v>
+        <v>-7769</v>
       </c>
       <c r="M244" s="13">
-        <v>-7769</v>
+        <v>14977</v>
       </c>
       <c r="N244" s="13">
-        <v>14977</v>
-      </c>
-    </row>
-    <row r="245" spans="2:14" x14ac:dyDescent="0.25">
+        <v>16328</v>
+      </c>
+    </row>
+    <row r="245" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B245" s="10" t="s">
         <v>37</v>
       </c>
@@ -9331,74 +9331,74 @@
       </c>
       <c r="D245" s="11"/>
       <c r="E245" s="11">
-        <v>149239</v>
+        <v>12107</v>
       </c>
       <c r="F245" s="11">
-        <v>12107</v>
+        <v>174846</v>
       </c>
       <c r="G245" s="11">
-        <v>174846</v>
+        <v>89702</v>
       </c>
       <c r="H245" s="11">
-        <v>89702</v>
+        <v>152210</v>
       </c>
       <c r="I245" s="11">
-        <v>152210</v>
+        <v>33847</v>
       </c>
       <c r="J245" s="11">
-        <v>33847</v>
+        <v>42764</v>
       </c>
       <c r="K245" s="11">
-        <v>42764</v>
+        <v>13575</v>
       </c>
       <c r="L245" s="11">
-        <v>13575</v>
+        <v>4575</v>
       </c>
       <c r="M245" s="11">
-        <v>4575</v>
+        <v>34662</v>
       </c>
       <c r="N245" s="11">
-        <v>34662</v>
-      </c>
-    </row>
-    <row r="246" spans="2:14" x14ac:dyDescent="0.25">
+        <v>16105</v>
+      </c>
+    </row>
+    <row r="246" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B246" s="16" t="s">
         <v>70</v>
       </c>
       <c r="C246" s="17"/>
       <c r="D246" s="17"/>
       <c r="E246" s="17">
-        <v>207193</v>
+        <v>34609</v>
       </c>
       <c r="F246" s="17">
-        <v>34609</v>
+        <v>214915</v>
       </c>
       <c r="G246" s="17">
-        <v>214915</v>
+        <v>101273</v>
       </c>
       <c r="H246" s="17">
-        <v>101273</v>
+        <v>154735</v>
       </c>
       <c r="I246" s="17">
-        <v>154735</v>
+        <v>145084</v>
       </c>
       <c r="J246" s="17">
-        <v>145084</v>
+        <v>67875</v>
       </c>
       <c r="K246" s="17">
-        <v>67875</v>
+        <v>31866</v>
       </c>
       <c r="L246" s="17">
-        <v>31866</v>
+        <v>-3194</v>
       </c>
       <c r="M246" s="17">
-        <v>-3194</v>
+        <v>55647</v>
       </c>
       <c r="N246" s="17">
-        <v>55647</v>
-      </c>
-    </row>
-    <row r="247" spans="2:14" x14ac:dyDescent="0.25">
+        <v>32508</v>
+      </c>
+    </row>
+    <row r="247" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B247" s="8" t="s">
         <v>71</v>
       </c>
@@ -9415,7 +9415,7 @@
       <c r="M247" s="9"/>
       <c r="N247" s="9"/>
     </row>
-    <row r="248" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B248" s="10" t="s">
         <v>42</v>
       </c>
@@ -9454,7 +9454,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="249" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B249" s="12" t="s">
         <v>43</v>
       </c>
@@ -9463,108 +9463,108 @@
       </c>
       <c r="D249" s="13"/>
       <c r="E249" s="13">
-        <v>78718</v>
+        <v>41806</v>
       </c>
       <c r="F249" s="13">
-        <v>41806</v>
+        <v>64450</v>
       </c>
       <c r="G249" s="13">
-        <v>64450</v>
+        <v>52406</v>
       </c>
       <c r="H249" s="13">
-        <v>52406</v>
+        <v>77478</v>
       </c>
       <c r="I249" s="13">
-        <v>77478</v>
+        <v>38142</v>
       </c>
       <c r="J249" s="13">
-        <v>38142</v>
+        <v>117623</v>
       </c>
       <c r="K249" s="13">
-        <v>117623</v>
+        <v>70965</v>
       </c>
       <c r="L249" s="13">
-        <v>70965</v>
+        <v>45801</v>
       </c>
       <c r="M249" s="13">
-        <v>45801</v>
+        <v>60327</v>
       </c>
       <c r="N249" s="13">
-        <v>60327</v>
-      </c>
-    </row>
-    <row r="250" spans="2:14" x14ac:dyDescent="0.25">
+        <v>84650</v>
+      </c>
+    </row>
+    <row r="250" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B250" s="14" t="s">
         <v>72</v>
       </c>
       <c r="C250" s="15"/>
       <c r="D250" s="15"/>
       <c r="E250" s="15">
-        <v>78718</v>
+        <v>41806</v>
       </c>
       <c r="F250" s="15">
-        <v>41806</v>
+        <v>64450</v>
       </c>
       <c r="G250" s="15">
-        <v>64450</v>
+        <v>52406</v>
       </c>
       <c r="H250" s="15">
-        <v>52406</v>
+        <v>77478</v>
       </c>
       <c r="I250" s="15">
-        <v>77478</v>
+        <v>38142</v>
       </c>
       <c r="J250" s="15">
-        <v>38142</v>
+        <v>117623</v>
       </c>
       <c r="K250" s="15">
-        <v>117623</v>
+        <v>70965</v>
       </c>
       <c r="L250" s="15">
-        <v>70965</v>
+        <v>45801</v>
       </c>
       <c r="M250" s="15">
-        <v>45801</v>
+        <v>60327</v>
       </c>
       <c r="N250" s="15">
-        <v>60327</v>
-      </c>
-    </row>
-    <row r="251" spans="2:14" x14ac:dyDescent="0.25">
+        <v>84650</v>
+      </c>
+    </row>
+    <row r="251" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B251" s="16" t="s">
         <v>48</v>
       </c>
       <c r="C251" s="17"/>
       <c r="D251" s="17"/>
       <c r="E251" s="17">
-        <v>1497083</v>
+        <v>1446886</v>
       </c>
       <c r="F251" s="17">
-        <v>1446886</v>
+        <v>1294967</v>
       </c>
       <c r="G251" s="17">
-        <v>1294967</v>
+        <v>1574538</v>
       </c>
       <c r="H251" s="17">
-        <v>1574538</v>
+        <v>4977767</v>
       </c>
       <c r="I251" s="17">
-        <v>4977767</v>
+        <v>3243269</v>
       </c>
       <c r="J251" s="17">
-        <v>3243269</v>
+        <v>1438546</v>
       </c>
       <c r="K251" s="17">
-        <v>1438546</v>
+        <v>2553873</v>
       </c>
       <c r="L251" s="17">
-        <v>2553873</v>
+        <v>3031283</v>
       </c>
       <c r="M251" s="17">
-        <v>3031283</v>
+        <v>3070575</v>
       </c>
       <c r="N251" s="17">
-        <v>3070575</v>
+        <v>3255526</v>
       </c>
     </row>
   </sheetData>
